--- a/excel/nomes2.xlsx
+++ b/excel/nomes2.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
@@ -506,9 +506,16 @@
           <t>Soma das idades</t>
         </is>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <f>SUM(B2:B4)</f>
         <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>ALUNOS</t>
+        </is>
       </c>
     </row>
   </sheetData>
